--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\JavaB17\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA615E-3421-46D7-8499-506A87B801CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CD287-EACD-4541-B3E8-F07275116A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{BEE6DAFF-AC09-48C1-914C-0C623BA3C329}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
     <sheet name="Modifiers" sheetId="2" r:id="rId2"/>
-    <sheet name="Collection" sheetId="4" r:id="rId3"/>
+    <sheet name="Collections" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="204">
   <si>
     <t>Arrays</t>
   </si>
@@ -740,12 +740,36 @@
       <t>+: bin-level locking + CAS that boosted performance</t>
     </r>
   </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Symmetrical</t>
+  </si>
+  <si>
+    <t>Jagged</t>
+  </si>
+  <si>
+    <t>int [][] grid</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +972,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1098,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1120,16 +1152,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,18 +1198,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,30 +1205,51 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1536,83 +1567,115 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="G2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="G3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="9" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="9" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="12">
         <v>2</v>
       </c>
-      <c r="G10" s="16">
+      <c r="H10" s="12">
         <v>3</v>
       </c>
-      <c r="H10" s="16">
+      <c r="I10" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
@@ -1623,40 +1686,43 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J13" s="1"/>
     </row>
-    <row r="18" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D20" s="14"/>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="11">
         <v>2</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="11">
         <v>3</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="4">
@@ -1676,7 +1742,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D22" s="15">
+      <c r="D22" s="11">
         <v>1</v>
       </c>
       <c r="E22" s="5">
@@ -1696,7 +1762,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D23" s="15">
+      <c r="D23" s="11">
         <v>2</v>
       </c>
       <c r="E23" s="6">
@@ -1721,31 +1787,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D30" s="14"/>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
+      <c r="D30" s="10"/>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
         <v>1</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="11">
         <v>2</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="11">
         <v>3</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D31" s="15">
+      <c r="D31" s="11">
         <v>0</v>
       </c>
       <c r="E31" s="4">
@@ -1765,7 +1831,10 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D32" s="15">
+      <c r="C32" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="11">
         <v>1</v>
       </c>
       <c r="E32" s="5">
@@ -1781,7 +1850,7 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D33" s="15">
+      <c r="D33" s="11">
         <v>2</v>
       </c>
       <c r="E33" s="6">
@@ -1796,7 +1865,7 @@
       <c r="H33" s="6">
         <v>0</v>
       </c>
-      <c r="I33" s="11"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J34" s="1" t="s">
@@ -1806,54 +1875,54 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L36" s="1"/>
     </row>
-    <row r="38" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J39" s="3"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D40" s="14"/>
-      <c r="E40" s="15">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15">
+      <c r="D40" s="10"/>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11">
         <v>1</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="11">
         <v>2</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="11">
         <v>3</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="11">
         <v>4</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D41" s="15">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="4">
         <v>0</v>
       </c>
@@ -1864,20 +1933,20 @@
         <v>0</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D42" s="15">
+      <c r="D42" s="11">
         <v>1</v>
       </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
         <v>0</v>
       </c>
       <c r="G42" s="8">
@@ -1887,7 +1956,7 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D43" s="15">
+      <c r="D43" s="11">
         <v>2</v>
       </c>
       <c r="E43" s="6">
@@ -1902,21 +1971,21 @@
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="11"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.35">
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
     </row>
     <row r="50" spans="11:15" x14ac:dyDescent="0.35">
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1929,20 +1998,22 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
-    <col min="5" max="5" width="55.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>47</v>
       </c>
@@ -1959,258 +2030,258 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="40">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="40">
+      <c r="A3" s="48">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="40">
+      <c r="A4" s="48">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="40">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="40">
+      <c r="A6" s="48">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A7" s="40">
+      <c r="A7" s="48">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="40">
+      <c r="A8" s="48">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="40">
+      <c r="A9" s="48">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="40">
+      <c r="A10" s="48">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="40">
+      <c r="A11" s="48">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="40">
+      <c r="A12" s="48">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="40">
+      <c r="A13" s="48">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="40">
+      <c r="A14" s="48">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="40">
+      <c r="A15" s="48">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="40">
+      <c r="A16" s="48">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2225,722 +2296,723 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="28.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="6.453125" style="9"/>
+    <col min="1" max="1" width="4.90625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="45" customFormat="1" ht="14" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" s="34" customFormat="1" ht="14" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="27" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="39" x14ac:dyDescent="0.35">
-      <c r="A3" s="35">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="28" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
+      <c r="A4" s="40">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="27" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39" x14ac:dyDescent="0.35">
-      <c r="A5" s="35">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="28" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A6" s="35">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A7" s="33">
+      <c r="A7" s="40">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A8" s="35">
+      <c r="A8" s="42">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L8" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="28" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="35">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="33">
+      <c r="A10" s="40">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="31" t="s">
+      <c r="M10" s="27" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A11" s="35">
+      <c r="A11" s="42">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A12" s="35">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="35">
+      <c r="A13" s="42">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="26" x14ac:dyDescent="0.35">
-      <c r="A14" s="35">
+      <c r="A14" s="42">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="28" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39" x14ac:dyDescent="0.35">
-      <c r="A15" s="35">
+      <c r="A15" s="42">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39" x14ac:dyDescent="0.35">
-      <c r="A16" s="35">
+      <c r="A16" s="42">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A17" s="35">
+    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+      <c r="A17" s="42">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="28" t="s">
         <v>175</v>
       </c>
     </row>

--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\JavaB17\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CD287-EACD-4541-B3E8-F07275116A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90E034-A432-4315-B200-20577222F61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{BEE6DAFF-AC09-48C1-914C-0C623BA3C329}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{BEE6DAFF-AC09-48C1-914C-0C623BA3C329}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -1997,11 +1997,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1AF946-5542-4A2D-972F-B3F771CBE4AA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2295,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EA5C04-D7C8-4EDD-9D03-2958F02392D2}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/notes/notes.xlsx
+++ b/notes/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\JavaB17\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90E034-A432-4315-B200-20577222F61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65642D01-EEC2-43CC-B6F1-F8EA6DED2DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{BEE6DAFF-AC09-48C1-914C-0C623BA3C329}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{BEE6DAFF-AC09-48C1-914C-0C623BA3C329}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays" sheetId="1" r:id="rId1"/>
@@ -1997,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1AF946-5542-4A2D-972F-B3F771CBE4AA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2295,17 +2295,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EA5C04-D7C8-4EDD-9D03-2958F02392D2}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.90625" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.1796875" bestFit="1" customWidth="1"/>
